--- a/analysis/pre_gemini_data/participant260/Sheet3.xlsx
+++ b/analysis/pre_gemini_data/participant260/Sheet3.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,157 +422,153 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>condbody</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>conmdstat2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>exception</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>exception2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal5</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>mehodcall</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>var1</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
@@ -639,9 +623,7 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>16</v>
@@ -650,28 +632,28 @@
         <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I3" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>4</v>
       </c>
-      <c r="K3" t="n">
-        <v>7</v>
-      </c>
       <c r="L3" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
         <v>7</v>
@@ -681,9 +663,7 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
         <v>2</v>
       </c>
@@ -691,14 +671,14 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -724,9 +704,7 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>27</v>
@@ -735,28 +713,28 @@
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="I4" t="n">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>80</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
         <v>11</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12</v>
       </c>
       <c r="P4" t="n">
         <v>119</v>
@@ -766,9 +744,7 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>2</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
         <v>3</v>
       </c>
@@ -776,14 +752,14 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="Z4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
         <v>1</v>
@@ -809,9 +785,7 @@
       <c r="C5" t="n">
         <v>1393.79</v>
       </c>
-      <c r="D5" t="n">
-        <v>350.37</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>11729.02</v>
@@ -820,28 +794,28 @@
         <v>9708.85</v>
       </c>
       <c r="H5" t="n">
-        <v>63276.17</v>
+        <v>53616.32</v>
       </c>
       <c r="I5" t="n">
-        <v>42069.85</v>
+        <v>37715.22</v>
       </c>
       <c r="J5" t="n">
-        <v>3053.44</v>
+        <v>2535.58</v>
       </c>
       <c r="K5" t="n">
-        <v>3145.75</v>
+        <v>2061.28</v>
       </c>
       <c r="L5" t="n">
-        <v>23968.61</v>
+        <v>22450.23</v>
       </c>
       <c r="M5" t="n">
-        <v>6457.52</v>
+        <v>5205.91</v>
       </c>
       <c r="N5" t="n">
-        <v>1251.68</v>
+        <v>684.25</v>
       </c>
       <c r="O5" t="n">
-        <v>4154.8</v>
+        <v>4004.68</v>
       </c>
       <c r="P5" t="n">
         <v>35856.17</v>
@@ -851,9 +825,7 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>450.51</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
         <v>834.24</v>
       </c>
@@ -861,14 +833,14 @@
         <v>1368.07</v>
       </c>
       <c r="W5" t="n">
-        <v>1819.15</v>
+        <v>1301.29</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>37224.83</v>
+        <v>26770.22</v>
       </c>
       <c r="Z5" t="n">
-        <v>1168.45</v>
+        <v>650.59</v>
       </c>
       <c r="AA5" t="n">
         <v>300.27</v>
@@ -889,81 +861,77 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.17</v>
-      </c>
+        <v>1.28</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>5.85</v>
+        <v>10.77</v>
       </c>
       <c r="G6" t="n">
-        <v>4.84</v>
+        <v>8.91</v>
       </c>
       <c r="H6" t="n">
-        <v>31.55</v>
+        <v>49.22</v>
       </c>
       <c r="I6" t="n">
-        <v>20.98</v>
+        <v>34.63</v>
       </c>
       <c r="J6" t="n">
-        <v>1.52</v>
+        <v>2.33</v>
       </c>
       <c r="K6" t="n">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="L6" t="n">
-        <v>11.95</v>
+        <v>20.61</v>
       </c>
       <c r="M6" t="n">
-        <v>3.22</v>
+        <v>4.78</v>
       </c>
       <c r="N6" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="O6" t="n">
-        <v>2.07</v>
+        <v>3.68</v>
       </c>
       <c r="P6" t="n">
         <v>39.13</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.39</v>
+        <v>4.39</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>0.22</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.42</v>
+        <v>0.77</v>
       </c>
       <c r="V6" t="n">
-        <v>0.68</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>0.91</v>
+        <v>1.19</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>18.56</v>
+        <v>24.58</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>4.06</v>
+        <v>7.47</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.99</v>
+        <v>1.82</v>
       </c>
       <c r="AE6" t="inlineStr"/>
     </row>
@@ -979,9 +947,7 @@
       <c r="C7" t="n">
         <v>278.76</v>
       </c>
-      <c r="D7" t="n">
-        <v>350.37</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>434.41</v>
@@ -990,28 +956,28 @@
         <v>231.16</v>
       </c>
       <c r="H7" t="n">
-        <v>277.53</v>
+        <v>266.75</v>
       </c>
       <c r="I7" t="n">
-        <v>261.3</v>
+        <v>258.32</v>
       </c>
       <c r="J7" t="n">
-        <v>436.21</v>
+        <v>422.6</v>
       </c>
       <c r="K7" t="n">
-        <v>285.98</v>
+        <v>343.55</v>
       </c>
       <c r="L7" t="n">
-        <v>278.7</v>
+        <v>280.63</v>
       </c>
       <c r="M7" t="n">
-        <v>307.5</v>
+        <v>306.23</v>
       </c>
       <c r="N7" t="n">
-        <v>250.34</v>
+        <v>228.08</v>
       </c>
       <c r="O7" t="n">
-        <v>346.23</v>
+        <v>364.06</v>
       </c>
       <c r="P7" t="n">
         <v>301.31</v>
@@ -1021,9 +987,7 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="n">
-        <v>225.25</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
         <v>278.08</v>
       </c>
@@ -1031,14 +995,14 @@
         <v>684.04</v>
       </c>
       <c r="W7" t="n">
-        <v>259.88</v>
+        <v>216.88</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>282.01</v>
+        <v>294.18</v>
       </c>
       <c r="Z7" t="n">
-        <v>233.69</v>
+        <v>162.65</v>
       </c>
       <c r="AA7" t="n">
         <v>300.27</v>
@@ -1064,9 +1028,7 @@
       <c r="C8" t="n">
         <v>300.32</v>
       </c>
-      <c r="D8" t="n">
-        <v>350.37</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>1017.62</v>
@@ -1106,9 +1068,7 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>166.84</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
         <v>133.51</v>
       </c>
@@ -1203,6 +1163,623 @@
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pos</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>arg1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>arg2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>arg3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>arg4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>assign</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>assign2</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>condbody</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>condstate</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>conmdstat2</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>exception</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>exception2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>external</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>external2</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>gemini</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>literal</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>literal2</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>literal3</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>literal5</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mehodcall</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>methodcall2</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>methoddec</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>var1</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>var2</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>var3</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>var4</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>var5</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>var6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Revisit count</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>27</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>9659.85</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4354.63</v>
+      </c>
+      <c r="J16" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1084.47</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1518.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1251.6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>567.4299999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>150.11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>35856.17</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>450.51</v>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>10454.61</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="P17" t="n">
+        <v>39.13</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>357.77</v>
+      </c>
+      <c r="I18" t="n">
+        <v>290.31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="K18" t="n">
+        <v>216.89</v>
+      </c>
+      <c r="L18" t="n">
+        <v>253.06</v>
+      </c>
+      <c r="M18" t="n">
+        <v>312.9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>283.72</v>
+      </c>
+      <c r="O18" t="n">
+        <v>150.11</v>
+      </c>
+      <c r="P18" t="n">
+        <v>301.31</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>225.25</v>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>254.99</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>350.37</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>233.62</v>
+      </c>
+      <c r="I19" t="n">
+        <v>233.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="K19" t="n">
+        <v>333.69</v>
+      </c>
+      <c r="L19" t="n">
+        <v>233.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>283.62</v>
+      </c>
+      <c r="N19" t="n">
+        <v>233.75</v>
+      </c>
+      <c r="O19" t="n">
+        <v>150.11</v>
+      </c>
+      <c r="P19" t="n">
+        <v>183.56</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="n">
+        <v>250.18</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>517.86</v>
+      </c>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
